--- a/MSc Stats Freshers KBCNMU eClerx.xlsx
+++ b/MSc Stats Freshers KBCNMU eClerx.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Intern\Gitclone_\Place\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="570" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Stats2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -869,8 +874,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -880,24 +885,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -939,6 +948,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1139,18 +1156,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2:S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -1175,7 +1192,7 @@
     <col min="21" max="26" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>280</v>
       </c>
@@ -1237,825 +1254,822 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="D2" s="1">
-        <v>7498465330</v>
+        <v>9823189240</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.39</v>
       </c>
       <c r="H2" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.26</v>
       </c>
       <c r="I2" s="1">
         <v>2020</v>
       </c>
-      <c r="J2" s="1">
-        <v>84.38</v>
+      <c r="J2" s="3">
+        <v>0.85260000000000002</v>
       </c>
       <c r="K2" s="1">
         <v>2017</v>
       </c>
-      <c r="L2" s="1">
-        <v>76</v>
+      <c r="L2" s="3">
+        <v>0.71689999999999998</v>
       </c>
       <c r="M2" s="1">
         <v>2015</v>
       </c>
-      <c r="N2" s="1">
-        <v>86.8</v>
+      <c r="N2" s="3">
+        <v>0.84399999999999997</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="S2" s="5" t="str">
-        <f t="shared" ref="S2:S28" si="0">HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B2,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Pankaj Sudhakar.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B2,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Badgujar Damini Pramod.pdf</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1">
-        <v>7264888030</v>
+        <v>9130167308</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I3" s="1">
         <v>2020</v>
       </c>
       <c r="J3" s="1">
-        <v>89.03</v>
+        <v>87.98</v>
       </c>
       <c r="K3" s="1">
         <v>2017</v>
       </c>
       <c r="L3" s="1">
-        <v>77.69</v>
+        <v>75.08</v>
       </c>
       <c r="M3" s="1">
         <v>2015</v>
       </c>
       <c r="N3" s="1">
-        <v>88.8</v>
+        <v>91</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Shardul Bhushan Laxman.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B3,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Badgujar Shivani Vijay.pdf</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1">
-        <v>9764944726</v>
+        <v>8149704642</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="G4" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="I4" s="1">
         <v>2020</v>
       </c>
       <c r="J4" s="1">
-        <v>88.5</v>
+        <v>78.53</v>
       </c>
       <c r="K4" s="1">
         <v>2017</v>
       </c>
       <c r="L4" s="1">
-        <v>68.459999999999994</v>
+        <v>73.23</v>
       </c>
       <c r="M4" s="1">
         <v>2015</v>
       </c>
       <c r="N4" s="1">
-        <v>82.6</v>
+        <v>92.8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="S4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Vishwakarma Adipkumar A.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B4,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Bhavsar Shweta Vijay.pdf</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1">
-        <v>8999619306</v>
+        <v>9689485649</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G5" s="1">
-        <v>9.39</v>
+        <v>9.09</v>
       </c>
       <c r="H5" s="1">
-        <v>9.57</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="I5" s="1">
         <v>2020</v>
       </c>
       <c r="J5" s="1">
-        <v>85</v>
+        <v>83.63</v>
       </c>
       <c r="K5" s="1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="L5" s="1">
-        <v>67.23</v>
+        <v>58.15</v>
       </c>
       <c r="M5" s="1">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="N5" s="1">
-        <v>82.91</v>
+        <v>85.2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="S5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Ghodi Akil Ahmad Mohammad S.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B5,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Bhoi Prajakta Dinesh.pdf</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
-        <v>9028934370</v>
+        <v>9172071228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1">
-        <v>8.7799999999999994</v>
+        <v>8.09</v>
       </c>
       <c r="H6" s="1">
-        <v>9.83</v>
+        <v>6.87</v>
       </c>
       <c r="I6" s="1">
         <v>2020</v>
       </c>
       <c r="J6" s="1">
-        <v>80.39</v>
+        <v>69.78</v>
       </c>
       <c r="K6" s="1">
         <v>2017</v>
       </c>
       <c r="L6" s="1">
-        <v>61.54</v>
+        <v>66.150000000000006</v>
       </c>
       <c r="M6" s="1">
         <v>2015</v>
       </c>
       <c r="N6" s="1">
-        <v>81</v>
+        <v>85.6</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Maniyar Sai Rauf Sai Rafik.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B6,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Chaudhari Shubham Dattu.pdf</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1">
-        <v>7249461362</v>
+        <v>8208368864</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1">
-        <v>8.61</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>2020</v>
       </c>
       <c r="J7" s="1">
-        <v>84.42</v>
+        <v>87.29</v>
       </c>
       <c r="K7" s="1">
         <v>2017</v>
       </c>
       <c r="L7" s="1">
-        <v>65.849999999999994</v>
+        <v>87.54</v>
       </c>
       <c r="M7" s="1">
         <v>2015</v>
       </c>
       <c r="N7" s="1">
-        <v>85.6</v>
+        <v>97.2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="S7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Hire Manish Nagraj.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B7,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Chaware Bhagyashree Shirish.pdf</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1">
-        <v>7387489111</v>
+        <v>8208368864</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G8" s="1">
-        <v>9.0399999999999991</v>
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="H8" s="1">
-        <v>9.09</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
         <v>2020</v>
       </c>
       <c r="J8" s="1">
-        <v>81.08</v>
+        <v>85.97</v>
       </c>
       <c r="K8" s="1">
         <v>2017</v>
       </c>
       <c r="L8" s="1">
-        <v>74.77</v>
+        <v>85.69</v>
       </c>
       <c r="M8" s="1">
         <v>2015</v>
       </c>
       <c r="N8" s="1">
-        <v>91.8</v>
+        <v>95.4</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="S8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Rane Nikita Vikas.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B8,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Chaware Tejashree Shirish.pdf</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1">
-        <v>7559403074</v>
+        <v>8928297969</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.52</v>
       </c>
       <c r="H9" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I9" s="1">
         <v>2020</v>
       </c>
-      <c r="J9" s="1">
-        <v>89.83</v>
+      <c r="J9" s="3">
+        <v>0.88949999999999996</v>
       </c>
       <c r="K9" s="1">
         <v>2017</v>
       </c>
-      <c r="L9" s="1">
-        <v>80.31</v>
+      <c r="L9" s="3">
+        <v>0.74619999999999997</v>
       </c>
       <c r="M9" s="1">
         <v>2015</v>
       </c>
-      <c r="N9" s="1">
-        <v>93.6</v>
+      <c r="N9" s="3">
+        <v>0.91800000000000004</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B9,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Deshmukh Asavari Sunil.pdf</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9764123817</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J10" s="1">
+        <v>59.39</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L10" s="1">
+        <v>63.69</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N10" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B10,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Dhamale Kiran Gopal.pdf</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7888233441</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.83</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J11" s="1">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L11" s="1">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N11" s="1">
+        <v>78</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Kabara Chanchal Kailas.pdf</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9130167308</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J10" s="1">
-        <v>87.98</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L10" s="1">
-        <v>75.08</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="R11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S11" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B11,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Dhangar Shiwani Dattatray.pdf</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8999619306</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J12" s="1">
+        <v>85</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="L12" s="1">
+        <v>67.23</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="N12" s="1">
+        <v>82.91</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Badgujar Shivani Vijay.pdf</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7057671413</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="H11" s="1">
-        <v>8.93</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J11" s="1">
-        <v>82.97</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L11" s="1">
-        <v>64.459999999999994</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N11" s="1">
-        <v>84</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Khalage Kirti Vijay.pdf</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7588327500</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="H12" s="1">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J12" s="1">
-        <v>91.61</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L12" s="1">
-        <v>84.62</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N12" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S12" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B12,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Ghodi Akil Ahmad Mohammad S.pdf</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7249461362</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8.61</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J13" s="1">
+        <v>84.42</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L13" s="1">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N13" s="1">
+        <v>85.6</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B13,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Hire Manish Nagraj.pdf</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7620905210</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J14" s="1">
+        <v>78.03</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L14" s="1">
+        <v>58.31</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N14" s="1">
         <v>80</v>
       </c>
-      <c r="S12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Lakhotia Gayatri Vijay.pdf</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9112675625</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9.39</v>
-      </c>
-      <c r="H13" s="1">
-        <v>9.52</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J13" s="1">
-        <v>91.42</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L13" s="1">
-        <v>79.08</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N13" s="1">
-        <v>91</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Mahale Sneha Sanjay.pdf</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9403701361</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7.74</v>
-      </c>
-      <c r="H14" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J14" s="1">
-        <v>58.89</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L14" s="1">
-        <v>77.69</v>
-      </c>
-      <c r="M14" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N14" s="1">
-        <v>62.8</v>
-      </c>
       <c r="O14" s="1" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S14" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B14,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Jadhav Tejas Sunil.pdf</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>24</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Kothawade Tejal Suryakant.pdf</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
-        <v>14</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1">
-        <v>9689485649</v>
+        <v>7798332469</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="1">
-        <v>9.09</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="H15" s="1">
-        <v>9.4600000000000009</v>
+        <v>9.17</v>
       </c>
       <c r="I15" s="1">
         <v>2020</v>
       </c>
       <c r="J15" s="1">
-        <v>83.63</v>
+        <v>87.57</v>
       </c>
       <c r="K15" s="1">
         <v>2017</v>
       </c>
       <c r="L15" s="1">
-        <v>58.15</v>
+        <v>63.08</v>
       </c>
       <c r="M15" s="1">
         <v>2015</v>
       </c>
       <c r="N15" s="1">
-        <v>85.2</v>
+        <v>87.4</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>24</v>
@@ -2064,466 +2078,481 @@
         <v>80</v>
       </c>
       <c r="S15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Bhoi Prajakta Dinesh.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B15,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Jathar Dinesh Ashok.pdf</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="D16" s="1">
-        <v>8149704642</v>
+        <v>7559403074</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>198</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="G16" s="1">
-        <v>9.0399999999999991</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H16" s="1">
-        <v>8.8699999999999992</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="I16" s="1">
         <v>2020</v>
       </c>
       <c r="J16" s="1">
-        <v>78.53</v>
+        <v>89.83</v>
       </c>
       <c r="K16" s="1">
         <v>2017</v>
       </c>
       <c r="L16" s="1">
-        <v>73.23</v>
+        <v>80.31</v>
       </c>
       <c r="M16" s="1">
         <v>2015</v>
       </c>
       <c r="N16" s="1">
-        <v>92.8</v>
+        <v>93.6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="S16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Bhavsar Shweta Vijay.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B16,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Kabara Chanchal Kailas.pdf</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1">
-        <v>8805293169</v>
+        <v>7057671413</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="G17" s="1">
-        <v>9.57</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="H17" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J17" s="1">
+        <v>82.97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L17" s="1">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N17" s="1">
+        <v>84</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B17,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Khalage Kirti Vijay.pdf</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7276310810</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.83</v>
+      </c>
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="I17" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J17" s="1">
-        <v>88.11</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L17" s="1">
-        <v>83.69</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="I18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J18" s="1">
+        <v>86.26</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L18" s="1">
+        <v>74.77</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N18" s="1">
+        <v>86</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S18" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B18,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Kolte Neha Dinesh.pdf</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Sham Raghunath.pdf</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9764123817</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J18" s="1">
-        <v>59.39</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L18" s="1">
-        <v>63.69</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N18" s="1">
-        <v>82.4</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Dhamale Kiran Gopal.pdf</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="1">
-        <v>9172071228</v>
+        <v>9403701361</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="G19" s="1">
-        <v>8.09</v>
+        <v>7.74</v>
       </c>
       <c r="H19" s="1">
-        <v>6.87</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I19" s="1">
         <v>2020</v>
       </c>
       <c r="J19" s="1">
-        <v>69.78</v>
+        <v>58.89</v>
       </c>
       <c r="K19" s="1">
         <v>2017</v>
       </c>
       <c r="L19" s="1">
-        <v>66.150000000000006</v>
+        <v>77.69</v>
       </c>
       <c r="M19" s="1">
         <v>2015</v>
       </c>
       <c r="N19" s="1">
-        <v>85.6</v>
+        <v>62.8</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="S19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Chaudhari Shubham Dattu.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B19,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Kothawade Tejal Suryakant.pdf</v>
       </c>
       <c r="T19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7588327500</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J20" s="1">
+        <v>91.61</v>
+      </c>
+      <c r="K20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L20" s="1">
+        <v>84.62</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N20" s="1">
+        <v>92.2</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B20,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Lakhotia Gayatri Vijay.pdf</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>9823358299</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="H21" s="1">
+        <v>9.52</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J21" s="1">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L21" s="1">
+        <v>63.38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N21" s="1">
+        <v>80</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B21,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Mahajan Shubham Dayaram.pdf</v>
+      </c>
+      <c r="T21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9404795303</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="1">
-        <v>8.39</v>
-      </c>
-      <c r="H20" s="1">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J20" s="1">
-        <v>68.45</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L20" s="1">
-        <v>63.23</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N20" s="1">
-        <v>83.4</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Shinde Vaibhavi Vinod.pdf</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="1">
-        <v>7498490811</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="H21" s="1">
-        <v>8.35</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.6371</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0.5292</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2014</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Rajput Jagruti Gokul.pdf</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="D22" s="1">
-        <v>8208368864</v>
+        <v>9112675625</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="G22" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.39</v>
       </c>
       <c r="H22" s="1">
-        <v>10</v>
+        <v>9.52</v>
       </c>
       <c r="I22" s="1">
         <v>2020</v>
       </c>
       <c r="J22" s="1">
-        <v>87.29</v>
+        <v>91.42</v>
       </c>
       <c r="K22" s="1">
         <v>2017</v>
       </c>
       <c r="L22" s="1">
-        <v>87.54</v>
+        <v>79.08</v>
       </c>
       <c r="M22" s="1">
         <v>2015</v>
       </c>
       <c r="N22" s="1">
-        <v>97.2</v>
+        <v>91</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="S22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Chaware Bhagyashree Shirish.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B22,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Mahale Sneha Sanjay.pdf</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1">
-        <v>8208368864</v>
+        <v>9028934370</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1">
+        <v>8.7799999999999994</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <v>9.83</v>
       </c>
       <c r="I23" s="1">
         <v>2020</v>
       </c>
       <c r="J23" s="1">
-        <v>85.97</v>
+        <v>80.39</v>
       </c>
       <c r="K23" s="1">
         <v>2017</v>
       </c>
       <c r="L23" s="1">
-        <v>85.69</v>
+        <v>61.54</v>
       </c>
       <c r="M23" s="1">
         <v>2015</v>
       </c>
       <c r="N23" s="1">
-        <v>95.4</v>
+        <v>81</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>24</v>
@@ -2531,38 +2560,35 @@
       <c r="Q23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Chaware Tejashree Shirish.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B23,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Maniyar Sai Rauf Sai Rafik.pdf</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D24" s="1">
-        <v>9970795320</v>
+        <v>9096085763</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1">
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>
@@ -2571,560 +2597,554 @@
         <v>2020</v>
       </c>
       <c r="J24" s="1">
-        <v>93.23</v>
+        <v>85.21</v>
       </c>
       <c r="K24" s="1">
         <v>2017</v>
       </c>
       <c r="L24" s="1">
-        <v>83.84</v>
+        <v>78</v>
       </c>
       <c r="M24" s="1">
         <v>2015</v>
       </c>
       <c r="N24" s="1">
-        <v>88.2</v>
+        <v>92</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="R24" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="S24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Shende Shubham Shrimant.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B24,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Narkhede Rashmi Anant.pdf</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1">
-        <v>7798332469</v>
+        <v>7083398056</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1">
-        <v>9.2200000000000006</v>
+        <v>9.43</v>
       </c>
       <c r="H25" s="1">
-        <v>9.17</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="I25" s="1">
         <v>2020</v>
       </c>
       <c r="J25" s="1">
-        <v>87.57</v>
+        <v>91.5</v>
       </c>
       <c r="K25" s="1">
         <v>2017</v>
       </c>
       <c r="L25" s="1">
-        <v>63.08</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="M25" s="1">
         <v>2015</v>
       </c>
       <c r="N25" s="1">
-        <v>87.4</v>
+        <v>84.2</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B25,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Neha Dattatray.pdf</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8975185685</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.57</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J26" s="1">
+        <v>83.29</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L26" s="1">
+        <v>67.23</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N26" s="1">
+        <v>86.2</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Jathar Dinesh Ashok.pdf</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="1">
-        <v>9403942641</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="1">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="H26" s="1">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="I26" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J26" s="1">
-        <v>82.34</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L26" s="1">
-        <v>73.08</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N26" s="1">
-        <v>87.6</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Shah Puja Niranjan.pdf</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="S26" s="5"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1">
-        <v>9022136369</v>
+        <v>7498465330</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
+        <v>255</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1">
-        <v>8.39</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H27" s="1">
-        <v>8.7799999999999994</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="I27" s="1">
         <v>2020</v>
       </c>
       <c r="J27" s="1">
-        <v>78.180000000000007</v>
+        <v>84.38</v>
       </c>
       <c r="K27" s="1">
         <v>2017</v>
       </c>
       <c r="L27" s="1">
-        <v>67.849999999999994</v>
+        <v>76</v>
       </c>
       <c r="M27" s="1">
         <v>2015</v>
       </c>
       <c r="N27" s="1">
-        <v>88</v>
+        <v>86.8</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="S27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Sharada Vikas.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B27,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Pankaj Sudhakar.pdf</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
-        <v>8600448510</v>
+        <v>8657920803</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1">
-        <v>9.0399999999999991</v>
+        <v>7.74</v>
       </c>
       <c r="H28" s="1">
-        <v>9.52</v>
+        <v>2.52</v>
       </c>
       <c r="I28" s="1">
         <v>2020</v>
       </c>
-      <c r="J28" s="1">
-        <v>80.59</v>
+      <c r="J28" s="3">
+        <v>0.58309999999999995</v>
       </c>
       <c r="K28" s="1">
         <v>2017</v>
       </c>
-      <c r="L28" s="1">
-        <v>66.459999999999994</v>
+      <c r="L28" s="3">
+        <v>0.62460000000000004</v>
       </c>
       <c r="M28" s="1">
         <v>2015</v>
       </c>
-      <c r="N28" s="1">
-        <v>85</v>
+      <c r="N28" s="3">
+        <v>0.748</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="S28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Sultane Sushama Bhika.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B28,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Prajwal Rajendra.pdf</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D29" s="1">
-        <v>8975185685</v>
+        <v>8805293169</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1">
-        <v>8.57</v>
+        <v>9.57</v>
       </c>
       <c r="H29" s="1">
-        <v>9.35</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
         <v>2020</v>
       </c>
       <c r="J29" s="1">
-        <v>83.29</v>
+        <v>88.11</v>
       </c>
       <c r="K29" s="1">
         <v>2017</v>
       </c>
       <c r="L29" s="1">
-        <v>67.23</v>
+        <v>83.69</v>
       </c>
       <c r="M29" s="1">
         <v>2015</v>
       </c>
       <c r="N29" s="1">
-        <v>86.2</v>
+        <v>89</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20">
+        <v>25</v>
+      </c>
+      <c r="S29" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B29,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Sham Raghunath.pdf</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="D30" s="1">
-        <v>7083398056</v>
+        <v>9022136369</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="G30" s="1">
-        <v>9.43</v>
+        <v>8.39</v>
       </c>
       <c r="H30" s="1">
-        <v>9.8699999999999992</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="I30" s="1">
         <v>2020</v>
       </c>
       <c r="J30" s="1">
-        <v>91.5</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="K30" s="1">
         <v>2017</v>
       </c>
       <c r="L30" s="1">
-        <v>74.459999999999994</v>
+        <v>67.849999999999994</v>
       </c>
       <c r="M30" s="1">
         <v>2015</v>
       </c>
       <c r="N30" s="1">
-        <v>84.2</v>
+        <v>88</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>128</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="S30" s="5" t="str">
-        <f t="shared" ref="S30:S43" si="1">HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B30,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Neha Dattatray.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B30,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Sharada Vikas.pdf</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1">
-        <v>9096085763</v>
+        <v>7057786058</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="G31" s="1">
-        <v>9.6999999999999993</v>
+        <v>8.43</v>
       </c>
       <c r="H31" s="1">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="I31" s="1">
         <v>2020</v>
       </c>
       <c r="J31" s="1">
-        <v>85.21</v>
+        <v>67.53</v>
       </c>
       <c r="K31" s="1">
         <v>2017</v>
       </c>
       <c r="L31" s="1">
-        <v>78</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="M31" s="1">
         <v>2015</v>
       </c>
       <c r="N31" s="1">
-        <v>92</v>
+        <v>86.6</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="S31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Narkhede Rashmi Anant.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B31,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Patil Varsha Manilal.pdf</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1">
-        <v>7276310810</v>
+        <v>7498490811</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="G32" s="1">
-        <v>9.83</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="H32" s="1">
-        <v>10</v>
+        <v>8.35</v>
       </c>
       <c r="I32" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J32" s="1">
-        <v>86.26</v>
+        <v>2019</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.6371</v>
       </c>
       <c r="K32" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L32" s="1">
-        <v>74.77</v>
+        <v>2016</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.5292</v>
       </c>
       <c r="M32" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N32" s="1">
-        <v>86</v>
+        <v>2014</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.78800000000000003</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="S32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Kolte Neha Dinesh.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B32,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Rajput Jagruti Gokul.pdf</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1">
-        <v>7447880179</v>
+        <v>7741890846</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="G33" s="1">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="H33" s="1">
-        <v>7.8</v>
+        <v>6.83</v>
       </c>
       <c r="I33" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="J33" s="1">
-        <v>60.53</v>
+        <v>57.96</v>
       </c>
       <c r="K33" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L33" s="1">
-        <v>77.8</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="M33" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="N33" s="1">
-        <v>82.8</v>
+        <v>83.2</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>23</v>
@@ -3133,758 +3153,755 @@
         <v>24</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="S33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Sonawane Mayuri Ramesh.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B33,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Rajput Swapnil Rajendra.pdf</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1">
-        <v>7620905210</v>
+        <v>7387489111</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G34" s="1">
         <v>9.0399999999999991</v>
       </c>
       <c r="H34" s="1">
-        <v>9.6999999999999993</v>
+        <v>9.09</v>
       </c>
       <c r="I34" s="1">
         <v>2020</v>
       </c>
       <c r="J34" s="1">
-        <v>78.03</v>
+        <v>81.08</v>
       </c>
       <c r="K34" s="1">
         <v>2017</v>
       </c>
       <c r="L34" s="1">
-        <v>58.31</v>
+        <v>74.77</v>
       </c>
       <c r="M34" s="1">
         <v>2015</v>
       </c>
       <c r="N34" s="1">
-        <v>80</v>
+        <v>91.8</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="S34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Jadhav Tejas Sunil.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B34,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Rane Nikita Vikas.pdf</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="D35" s="1">
-        <v>8657238063</v>
+        <v>9403942641</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G35" s="1">
-        <v>9.17</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="H35" s="1">
-        <v>8.9600000000000009</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="I35" s="1">
         <v>2020</v>
       </c>
       <c r="J35" s="1">
-        <v>73.31</v>
+        <v>82.34</v>
       </c>
       <c r="K35" s="1">
         <v>2017</v>
       </c>
       <c r="L35" s="1">
-        <v>72.92</v>
+        <v>73.08</v>
       </c>
       <c r="M35" s="1">
         <v>2015</v>
       </c>
       <c r="N35" s="1">
-        <v>89</v>
+        <v>87.6</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="S35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Sisodiya Ranvirsing Shailendrasing.pdf</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B35,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Shah Puja Niranjan.pdf</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1">
-        <v>9823189240</v>
+        <v>8421681220</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1">
-        <v>9.39</v>
+        <v>8.4</v>
       </c>
       <c r="H36" s="1">
-        <v>9.26</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I36" s="1">
         <v>2020</v>
       </c>
-      <c r="J36" s="3">
-        <v>0.85260000000000002</v>
+      <c r="J36" s="1">
+        <v>73</v>
       </c>
       <c r="K36" s="1">
         <v>2017</v>
       </c>
-      <c r="L36" s="3">
-        <v>0.71689999999999998</v>
+      <c r="L36" s="1">
+        <v>64</v>
       </c>
       <c r="M36" s="1">
         <v>2015</v>
       </c>
-      <c r="N36" s="3">
-        <v>0.84399999999999997</v>
+      <c r="N36" s="1">
+        <v>85</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="S36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Badgujar Damini Pramod.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B36,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Shaikh Mubin Ramjan.pdf</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="D37" s="1">
-        <v>8928297969</v>
+        <v>7264888030</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>246</v>
+        <v>187</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G37" s="1">
-        <v>9.52</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
       <c r="I37" s="1">
         <v>2020</v>
       </c>
-      <c r="J37" s="3">
-        <v>0.88949999999999996</v>
+      <c r="J37" s="1">
+        <v>89.03</v>
       </c>
       <c r="K37" s="1">
         <v>2017</v>
       </c>
-      <c r="L37" s="3">
-        <v>0.74619999999999997</v>
+      <c r="L37" s="1">
+        <v>77.69</v>
       </c>
       <c r="M37" s="1">
         <v>2015</v>
       </c>
-      <c r="N37" s="3">
-        <v>0.91800000000000004</v>
+      <c r="N37" s="1">
+        <v>88.8</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="S37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Deshmukh Asavari Sunil.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B37,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Shardul Bhushan Laxman.pdf</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D38" s="1">
-        <v>7888233441</v>
+        <v>9970795320</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G38" s="1">
-        <v>9.74</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1">
-        <v>9.83</v>
+        <v>10</v>
       </c>
       <c r="I38" s="1">
         <v>2020</v>
       </c>
       <c r="J38" s="1">
-        <v>79.760000000000005</v>
+        <v>93.23</v>
       </c>
       <c r="K38" s="1">
         <v>2017</v>
       </c>
       <c r="L38" s="1">
-        <v>75.849999999999994</v>
+        <v>83.84</v>
       </c>
       <c r="M38" s="1">
         <v>2015</v>
       </c>
       <c r="N38" s="1">
-        <v>78</v>
+        <v>88.2</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="S38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Dhangar Shiwani Dattatray.pdf</v>
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B38,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Shende Shubham Shrimant.pdf</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1">
-        <v>9823358299</v>
+        <v>9404795303</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="G39" s="1">
-        <v>9.39</v>
+        <v>8.39</v>
       </c>
       <c r="H39" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J39" s="1">
+        <v>68.45</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L39" s="1">
+        <v>63.23</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N39" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S39" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B39,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Shinde Vaibhavi Vinod.pdf</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8657238063</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J40" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L40" s="1">
+        <v>72.92</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N40" s="1">
+        <v>89</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S40" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B40,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Sisodiya Ranvirsing Shailendrasing.pdf</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7447880179</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="J41" s="1">
+        <v>60.53</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L41" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N41" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S41" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B41,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Sonawane Mayuri Ramesh.pdf</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8600448510</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H42" s="1">
         <v>9.52</v>
       </c>
-      <c r="I39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J39" s="1">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="K39" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L39" s="1">
-        <v>63.38</v>
-      </c>
-      <c r="M39" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N39" s="1">
-        <v>80</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" s="1" t="s">
+      <c r="I42" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J42" s="1">
+        <v>80.59</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L42" s="1">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N42" s="1">
+        <v>85</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S42" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B42,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Sultane Sushama Bhika.pdf</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8668978920</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8.91</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J43" s="1">
+        <v>80.89</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L43" s="1">
+        <v>66.62</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N43" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Mahajan Shubham Dayaram.pdf</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1">
-        <v>8657920803</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="1">
-        <v>7.74</v>
-      </c>
-      <c r="H40" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="I40" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0.58309999999999995</v>
-      </c>
-      <c r="K40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0.62460000000000004</v>
-      </c>
-      <c r="M40" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.748</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Prajwal Rajendra.pdf</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7057786058</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="1">
-        <v>8.43</v>
-      </c>
-      <c r="H41" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J41" s="1">
-        <v>67.53</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L41" s="1">
-        <v>80.459999999999994</v>
-      </c>
-      <c r="M41" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N41" s="1">
-        <v>86.6</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Patil Varsha Manilal.pdf</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7741890846</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="1">
-        <v>7.96</v>
-      </c>
-      <c r="H42" s="1">
-        <v>6.83</v>
-      </c>
-      <c r="I42" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J42" s="1">
-        <v>57.96</v>
-      </c>
-      <c r="K42" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L42" s="1">
-        <v>66.959999999999994</v>
-      </c>
-      <c r="M42" s="1">
-        <v>2014</v>
-      </c>
-      <c r="N42" s="1">
-        <v>83.2</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S43" s="5" t="str">
+        <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B43,".pdf"))</f>
+        <v>https://kbcnmustats.github.io/cv/2021/Sutar Tushar Baburao.pdf</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9764944726</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J44" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="K44" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L44" s="1">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N44" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Rajput Swapnil Rajendra.pdf</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1">
-        <v>8421681220</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="H43" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I43" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J43" s="1">
-        <v>73</v>
-      </c>
-      <c r="K43" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L43" s="1">
-        <v>64</v>
-      </c>
-      <c r="M43" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N43" s="1">
-        <v>85</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://kbcnmustats.github.io/cv/2021/Shaikh Mubin Ramjan.pdf</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" s="1">
-        <v>8668978920</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G44" s="1">
-        <v>8.91</v>
-      </c>
-      <c r="H44" s="1">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="I44" s="1">
-        <v>2020</v>
-      </c>
-      <c r="J44" s="1">
-        <v>80.89</v>
-      </c>
-      <c r="K44" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L44" s="1">
-        <v>66.62</v>
-      </c>
-      <c r="M44" s="1">
-        <v>2015</v>
-      </c>
-      <c r="N44" s="1">
-        <v>84.2</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="Q44" s="1" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="S44" s="5" t="str">
         <f>HYPERLINK(CONCATENATE("https://kbcnmustats.github.io/cv/2021/",B44,".pdf"))</f>
-        <v>https://kbcnmustats.github.io/cv/2021/Sutar Tushar Baburao.pdf</v>
+        <v>https://kbcnmustats.github.io/cv/2021/Vishwakarma Adipkumar A.pdf</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:T44">
-    <sortCondition ref="A2:A44"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F39" r:id="rId1"/>
-    <hyperlink ref="T39" r:id="rId2"/>
-    <hyperlink ref="F42" r:id="rId3"/>
-    <hyperlink ref="T42" r:id="rId4"/>
-    <hyperlink ref="F40" r:id="rId5"/>
-    <hyperlink ref="T40" r:id="rId6"/>
-    <hyperlink ref="T19" r:id="rId7"/>
-    <hyperlink ref="F43" r:id="rId8"/>
-    <hyperlink ref="T43" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="T6" r:id="rId11"/>
-    <hyperlink ref="T18" r:id="rId12"/>
-    <hyperlink ref="F33" r:id="rId13"/>
-    <hyperlink ref="T33" r:id="rId14"/>
-    <hyperlink ref="F7" r:id="rId15"/>
-    <hyperlink ref="T7" r:id="rId16"/>
-    <hyperlink ref="T22" r:id="rId17"/>
-    <hyperlink ref="F25" r:id="rId18"/>
-    <hyperlink ref="T25" r:id="rId19"/>
-    <hyperlink ref="F2" r:id="rId20"/>
-    <hyperlink ref="T2" r:id="rId21"/>
-    <hyperlink ref="F14" r:id="rId22"/>
-    <hyperlink ref="T14" r:id="rId23"/>
-    <hyperlink ref="T23" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F41" r:id="rId26"/>
-    <hyperlink ref="T41" r:id="rId27"/>
-    <hyperlink ref="F10" r:id="rId28"/>
-    <hyperlink ref="T10" r:id="rId29"/>
-    <hyperlink ref="T16" r:id="rId30"/>
-    <hyperlink ref="F24" r:id="rId31"/>
-    <hyperlink ref="T24" r:id="rId32"/>
-    <hyperlink ref="F30" r:id="rId33"/>
-    <hyperlink ref="T30" r:id="rId34"/>
-    <hyperlink ref="T21" r:id="rId35"/>
-    <hyperlink ref="T8" r:id="rId36"/>
-    <hyperlink ref="T38" r:id="rId37"/>
-    <hyperlink ref="F31" r:id="rId38"/>
-    <hyperlink ref="T31" r:id="rId39"/>
-    <hyperlink ref="F32" r:id="rId40"/>
-    <hyperlink ref="T32" r:id="rId41"/>
-    <hyperlink ref="T44" r:id="rId42"/>
-    <hyperlink ref="F26" r:id="rId43"/>
-    <hyperlink ref="T26" r:id="rId44"/>
-    <hyperlink ref="F20" r:id="rId45"/>
-    <hyperlink ref="T20" r:id="rId46"/>
-    <hyperlink ref="F28" r:id="rId47"/>
-    <hyperlink ref="T28" r:id="rId48"/>
-    <hyperlink ref="F36" r:id="rId49"/>
-    <hyperlink ref="T36" r:id="rId50"/>
-    <hyperlink ref="F17" r:id="rId51"/>
-    <hyperlink ref="T17" r:id="rId52"/>
-    <hyperlink ref="F3" r:id="rId53"/>
-    <hyperlink ref="T3" r:id="rId54"/>
-    <hyperlink ref="F27" r:id="rId55"/>
-    <hyperlink ref="T27" r:id="rId56"/>
-    <hyperlink ref="F9" r:id="rId57"/>
-    <hyperlink ref="T9" r:id="rId58"/>
-    <hyperlink ref="F35" r:id="rId59"/>
-    <hyperlink ref="T35" r:id="rId60"/>
-    <hyperlink ref="F4" r:id="rId61"/>
-    <hyperlink ref="T4" r:id="rId62"/>
-    <hyperlink ref="F34" r:id="rId63"/>
-    <hyperlink ref="T34" r:id="rId64"/>
-    <hyperlink ref="T5" r:id="rId65"/>
-    <hyperlink ref="T15" r:id="rId66"/>
-    <hyperlink ref="F11" r:id="rId67"/>
-    <hyperlink ref="T11" r:id="rId68"/>
-    <hyperlink ref="T12" r:id="rId69"/>
-    <hyperlink ref="T13" r:id="rId70"/>
-    <hyperlink ref="T37" r:id="rId71"/>
+    <hyperlink ref="F21" r:id="rId1"/>
+    <hyperlink ref="T21" r:id="rId2"/>
+    <hyperlink ref="F33" r:id="rId3"/>
+    <hyperlink ref="T33" r:id="rId4"/>
+    <hyperlink ref="F28" r:id="rId5"/>
+    <hyperlink ref="T28" r:id="rId6"/>
+    <hyperlink ref="T6" r:id="rId7"/>
+    <hyperlink ref="F36" r:id="rId8"/>
+    <hyperlink ref="T36" r:id="rId9"/>
+    <hyperlink ref="F23" r:id="rId10"/>
+    <hyperlink ref="T23" r:id="rId11"/>
+    <hyperlink ref="T10" r:id="rId12"/>
+    <hyperlink ref="F41" r:id="rId13"/>
+    <hyperlink ref="T41" r:id="rId14"/>
+    <hyperlink ref="F13" r:id="rId15"/>
+    <hyperlink ref="T13" r:id="rId16"/>
+    <hyperlink ref="T7" r:id="rId17"/>
+    <hyperlink ref="F15" r:id="rId18"/>
+    <hyperlink ref="T15" r:id="rId19"/>
+    <hyperlink ref="F27" r:id="rId20"/>
+    <hyperlink ref="T27" r:id="rId21"/>
+    <hyperlink ref="F19" r:id="rId22"/>
+    <hyperlink ref="T19" r:id="rId23"/>
+    <hyperlink ref="T8" r:id="rId24"/>
+    <hyperlink ref="F26" r:id="rId25"/>
+    <hyperlink ref="F31" r:id="rId26"/>
+    <hyperlink ref="T31" r:id="rId27"/>
+    <hyperlink ref="F3" r:id="rId28"/>
+    <hyperlink ref="T3" r:id="rId29"/>
+    <hyperlink ref="T4" r:id="rId30"/>
+    <hyperlink ref="F38" r:id="rId31"/>
+    <hyperlink ref="T38" r:id="rId32"/>
+    <hyperlink ref="F25" r:id="rId33"/>
+    <hyperlink ref="T25" r:id="rId34"/>
+    <hyperlink ref="T32" r:id="rId35"/>
+    <hyperlink ref="T34" r:id="rId36"/>
+    <hyperlink ref="T11" r:id="rId37"/>
+    <hyperlink ref="F24" r:id="rId38"/>
+    <hyperlink ref="T24" r:id="rId39"/>
+    <hyperlink ref="F18" r:id="rId40"/>
+    <hyperlink ref="T18" r:id="rId41"/>
+    <hyperlink ref="T43" r:id="rId42"/>
+    <hyperlink ref="F35" r:id="rId43"/>
+    <hyperlink ref="T35" r:id="rId44"/>
+    <hyperlink ref="F39" r:id="rId45"/>
+    <hyperlink ref="T39" r:id="rId46"/>
+    <hyperlink ref="F42" r:id="rId47"/>
+    <hyperlink ref="T42" r:id="rId48"/>
+    <hyperlink ref="F2" r:id="rId49"/>
+    <hyperlink ref="T2" r:id="rId50"/>
+    <hyperlink ref="F29" r:id="rId51"/>
+    <hyperlink ref="T29" r:id="rId52"/>
+    <hyperlink ref="F37" r:id="rId53"/>
+    <hyperlink ref="T37" r:id="rId54"/>
+    <hyperlink ref="F30" r:id="rId55"/>
+    <hyperlink ref="T30" r:id="rId56"/>
+    <hyperlink ref="F16" r:id="rId57"/>
+    <hyperlink ref="T16" r:id="rId58"/>
+    <hyperlink ref="F40" r:id="rId59"/>
+    <hyperlink ref="T40" r:id="rId60"/>
+    <hyperlink ref="F44" r:id="rId61"/>
+    <hyperlink ref="T44" r:id="rId62"/>
+    <hyperlink ref="F14" r:id="rId63"/>
+    <hyperlink ref="T14" r:id="rId64"/>
+    <hyperlink ref="T12" r:id="rId65"/>
+    <hyperlink ref="T5" r:id="rId66"/>
+    <hyperlink ref="F17" r:id="rId67"/>
+    <hyperlink ref="T17" r:id="rId68"/>
+    <hyperlink ref="T20" r:id="rId69"/>
+    <hyperlink ref="T22" r:id="rId70"/>
+    <hyperlink ref="T9" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
